--- a/meta/5-5-2.xlsx
+++ b/meta/5-5-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\ЦЕЛИ УСТОЙЧИВОГО РАЗВИТИЯ\ПОРУЧЕНИЕ\Метаданные для заполнения на 31 декабря 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82791BF-6AB9-4EB2-B47D-ACC295A7F07B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1211528D-D716-4B20-BCD0-5F4A56C4AF7B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ГЛОБАЛЬНЫЕ" sheetId="3" r:id="rId1"/>
@@ -259,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -296,6 +296,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -578,218 +584,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="1" max="1" width="48.83984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="315.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" ht="315.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="13"/>
-    </row>
-    <row r="16" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:2" ht="25.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" ht="195.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="13"/>
-    </row>
-    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" spans="1:2" ht="50.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="13"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="16"/>
+    </row>
+    <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="9"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F65" s="4"/>
+      <c r="B26" s="9"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/meta/5-5-2.xlsx
+++ b/meta/5-5-2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1211528D-D716-4B20-BCD0-5F4A56C4AF7B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAF6B2A-EF51-47A5-85DF-44ED116775B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ГЛОБАЛЬНЫЕ" sheetId="3" r:id="rId1"/>
+    <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,23 +25,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
   <si>
+    <t>Цель</t>
+  </si>
+  <si>
+    <t>Задача</t>
+  </si>
+  <si>
+    <t>Индикатор</t>
+  </si>
+  <si>
     <t>2. Информация об организации</t>
   </si>
   <si>
+    <t>Организация</t>
+  </si>
+  <si>
+    <t>Контактное лицо (лица) / Координатор</t>
+  </si>
+  <si>
+    <t>Электронная почта контактного лица</t>
+  </si>
+  <si>
+    <t>Телефон контактного лица</t>
+  </si>
+  <si>
+    <t>Сайт организации (если есть)</t>
+  </si>
+  <si>
     <t>3. Определения и понятия</t>
   </si>
   <si>
+    <t>Определение</t>
+  </si>
+  <si>
     <t>Основные понятия:</t>
   </si>
   <si>
+    <t>Обоснование и толкование</t>
+  </si>
+  <si>
     <t>4. Источники данных и методы сбора</t>
   </si>
   <si>
+    <t>Источники данных</t>
+  </si>
+  <si>
+    <t>Методы сбора данных</t>
+  </si>
+  <si>
     <t>5. Метод расчета и другие методологические основы</t>
   </si>
   <si>
@@ -69,105 +105,82 @@
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t>Электронная почта контактного лица</t>
-  </si>
-  <si>
-    <t>Контактное лицо (лица) / Координатор</t>
-  </si>
-  <si>
-    <t>Организация</t>
-  </si>
-  <si>
-    <t>Индикатор</t>
-  </si>
-  <si>
-    <t>Задача</t>
-  </si>
-  <si>
-    <t>Цель</t>
-  </si>
-  <si>
-    <t>Определение</t>
-  </si>
-  <si>
-    <t>Сайт организации (если есть)</t>
-  </si>
-  <si>
-    <t>Телефон контактного лица</t>
-  </si>
-  <si>
-    <t>Обоснование и толкование</t>
-  </si>
-  <si>
-    <t>Источники данных</t>
-  </si>
-  <si>
-    <t>Методы сбора данных</t>
+    <t>Цель 5. Обеспечение гендерного равенства и расширение прав и возможностей всех женщин и девочек</t>
+  </si>
+  <si>
+    <t>5.5. Обеспечить всестороннее и реальное участие женщин и равные для них возможности для лидерства на всех уровнях принятия решений в политической, экономической и общественной жизни</t>
+  </si>
+  <si>
+    <t>5.5.2. Доля женщин на руководящих должностях</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет КР (Отдел статистики труда и занятости)</t>
+  </si>
+  <si>
+    <t>Джайлобаева Г.Ж.</t>
+  </si>
+  <si>
+    <t>jailobaeva@stat.kg</t>
+  </si>
+  <si>
+    <t>(0312) 626076</t>
   </si>
   <si>
     <t>www.stat.kg</t>
   </si>
   <si>
-    <t>НСК КР</t>
-  </si>
-  <si>
-    <t>Джайлобаева Г.Ж.</t>
-  </si>
-  <si>
-    <t>jailobaeva@stat.kg</t>
-  </si>
-  <si>
-    <t>(0312) 626076</t>
-  </si>
-  <si>
-    <t>Интегрированное выборочное обследование бюджетов домашних хозяйств и рабочей силы ф. №4"Занятость и безработица"</t>
-  </si>
-  <si>
-    <t>Обеспечить всестороннее и реальное участие женщин и равные для них возможности для лидерства на всех уровнях принятия решений в политической, экономической и общественной жизни</t>
-  </si>
-  <si>
-    <t>5.Обеспечение гендерного равенства и расширение прав и возможностей всех женщин и девочек</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5.2 Доля женщин на руководящих должностях
-</t>
-  </si>
-  <si>
-    <t>на уровне республики, областей гг. Бишкек и Ош</t>
-  </si>
-  <si>
-    <t>Стандарты МОТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цель этого показателя -показать насколько выполняется гендерное равенство среди руководителей по видам деятельности и по территории </t>
-  </si>
-  <si>
-    <t>Расчеты показателя доли женщин занимающих руководящие должности производятся на основе данных ОРС делением численности женщин руководителей на  общую численность руководителей</t>
-  </si>
-  <si>
-    <t>Данные публикуются с статистическом сборнике "Занятость и безработица" и  "Женщины и мужчины Кыргызской Республики"</t>
-  </si>
-  <si>
-    <t>Опрос населения проводится интервьюерами путем непосредственного посещения домашних хозяйств и записи сведений в планшет по вопросникам выборочного обследования, утвержденные Постановлением Нацстаткома Кыргызской Республики. При непосредственном посещении домашнего хозяйства ответы на вопросы анкеты могут быть получены как от самого респондента, так и со слов совместно проживающих членов домашнего хозяйства в случае отсутствия респондента в момент опроса. Ежеквартально  для проведения обследования отобрано 5016 домохозяйств. Ежегодная ротация выборки составляет 25 процентов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Доля женщин на руководящих должностях показывает какую долю занимает  численность женщин среди рукододителей всех уровней. Показатель отражает долю женщин, занимающие позиции старших руководителей и руководителей среднего звена, в общем количестве занятых. Для целей расчета показателя руководители высшего и среднего звена соответствуют основной позиции 1  МСКЗ-88, за вычетом субпозиций  категории 13 в МСКЗ-88 (генеральные менеджеры), поскольку в основном это менеджеры малых предприятий. Если статистические данные не дезагрегируются на уровне субпозиций, основная группа 1 МСКЗ-88 применяется по умолчанию.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Доля женщин на руководящих должностях определяется отношением численности женщин руководителей к общей численности руководителей выраженных в процентах. Доля женщин на руководящих должностях = (занятые женщины, входящие в позицию 1 МСКЗ-88 за вычетом занятых женщин, входящих в позицию 13 МСКЗ-88) / (все занятые лица, входящие в позицию 1 МСКЗ-88 за вычетом занятых, входящих в субпозицию 14 МСКЗ-88) * 100.                 К Руководителям предпиятий, учреждений  и организаций  (и их структурных подразделений) относятся: министры, губернаторы, главы администраций, президенты, директора (генеральные директора), ректоры, начальники, управляющие, заведующие, председатели, командиры, менеджеры, мастера, главный бухгалтер, главный диспетчер, главный инженер, главный врач., главный редактор и т.д. и их заместители  </t>
+    <t xml:space="preserve">Доля женщин на руководящих должностях определяется отношением численности женщин руководителей к общей численности руководителей. Значение выражено в процентах. К руководителям предприятий, учреждений и организаций (и их структурных подразделений) относятся: министры, губернаторы, главы администраций, президенты, директора (генеральные директора), ректоры, начальники, управляющие, заведующие, председатели, командиры, менеджеры, мастера, главные бухгалтеры, главные диспетчеры, главные инженеры, главные врачи, главные редакторы и т.д. и их заместители. </t>
+  </si>
+  <si>
+    <t>Доля женщин на руководящих должностях показывает, какую долю занимает численность женщин среди руководителей всех уровней</t>
+  </si>
+  <si>
+    <t>Цель этого показателя - показать, насколько выполняется гендерное равенство среди руководителей по видам деятельности и по территории</t>
+  </si>
+  <si>
+    <t>Интегрированное выборочное обследование бюджетов домашних хозяйств и рабочей силы (Форма №4” Занятость и безработица")</t>
+  </si>
+  <si>
+    <t>Опрос населения проводится интервьюерами путем непосредственного посещения домашних хозяйств и записи сведений в планшет по вопросникам выборочного обследования, утвержденные Постановлением Нацстаткома Кыргызской Республики. При непосредственном посещении домашнего хозяйства ответы на вопросы анкеты могут быть получены как от самого респондента, так и со слов совместно проживающих членов домашнего хозяйства в случае отсутствия респондента в момент опроса. Ежеквартально для проведения обследования отобрано 5016 домохозяйств. Ежегодная ротация выборки составляет 25 процентов.</t>
+  </si>
+  <si>
+    <t>Расчеты показателя доли женщин, занимающих руководящие должности, производятся на основе данных ОРС делением численности женщин руководителей на общую численность руководителей</t>
+  </si>
+  <si>
+    <t>Качество данных обеспечивается соблюдением методологии организации и проведения выборочных обследований</t>
+  </si>
+  <si>
+    <t>Данные публикуются в статистическом сборнике «Занятость и безработица» и «Женщины и мужчины Кыргызской Республики» и на вебсайте НСК</t>
+  </si>
+  <si>
+    <t>Дезагрегация данных на уровне республики, областей, гг. Бишкек и Ош</t>
+  </si>
+  <si>
+    <t>Стандарты МОТ.</t>
+  </si>
+  <si>
+    <t>Национальная платформа отчётности ЦУР:  https://sustainabledevelopment-kyrgyzstan.github.io
+http://www.stat.kg/ru/publications/zanyatost-i-bezrabotica-itogi-integrirovannogo-vyborochnogo-obsledovaniya-byudzhetov-domashnih-hozyajstv-i-rabochej-sily-v-2013g/
+http://www.stat.kg/ru/publications/sbornik-zhenshiny-i-muzhchiny-kyrgyzskoj-respubliki/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,45 +189,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -257,56 +240,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{86863D4E-A394-4BDD-81E8-4B72232E897C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -322,9 +281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,14 +321,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -402,9 +361,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -434,7 +393,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -583,218 +542,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D869E3BE-CDB5-4206-8664-2D0E4210466B}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.83984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.26171875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-    </row>
-    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="15" t="s">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="16"/>
-    </row>
-    <row r="12" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="B23" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="315.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="16"/>
-    </row>
-    <row r="16" spans="1:2" ht="25.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="15" t="s">
+    <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="195.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="15" t="s">
+      <c r="B25" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="16"/>
-    </row>
-    <row r="19" spans="1:2" ht="50.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="13"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="16"/>
-    </row>
-    <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="9"/>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F63" s="4"/>
+      <c r="B26" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/meta/5-5-2.xlsx
+++ b/meta/5-5-2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAF6B2A-EF51-47A5-85DF-44ED116775B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,9 +110,6 @@
     <t>5.5. Обеспечить всестороннее и реальное участие женщин и равные для них возможности для лидерства на всех уровнях принятия решений в политической, экономической и общественной жизни</t>
   </si>
   <si>
-    <t>5.5.2. Доля женщин на руководящих должностях</t>
-  </si>
-  <si>
     <t>Национальный статистический комитет КР (Отдел статистики труда и занятости)</t>
   </si>
   <si>
@@ -124,9 +120,6 @@
   </si>
   <si>
     <t>(0312) 626076</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t xml:space="preserve">Доля женщин на руководящих должностях определяется отношением численности женщин руководителей к общей численности руководителей. Значение выражено в процентах. К руководителям предприятий, учреждений и организаций (и их структурных подразделений) относятся: министры, губернаторы, главы администраций, президенты, директора (генеральные директора), ректоры, начальники, управляющие, заведующие, председатели, командиры, менеджеры, мастера, главные бухгалтеры, главные диспетчеры, главные инженеры, главные врачи, главные редакторы и т.д. и их заместители. </t>
@@ -162,18 +155,32 @@
     <t>Национальная платформа отчётности ЦУР:  https://sustainabledevelopment-kyrgyzstan.github.io
 http://www.stat.kg/ru/publications/zanyatost-i-bezrabotica-itogi-integrirovannogo-vyborochnogo-obsledovaniya-byudzhetov-domashnih-hozyajstv-i-rabochej-sily-v-2013g/
 http://www.stat.kg/ru/publications/sbornik-zhenshiny-i-muzhchiny-kyrgyzskoj-respubliki/</t>
+  </si>
+  <si>
+    <t>5.5.2 Доля женщин на руководящих должностях</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,32 +247,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{86863D4E-A394-4BDD-81E8-4B72232E897C}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,11 +553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D869E3BE-CDB5-4206-8664-2D0E4210466B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -597,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -605,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -613,7 +624,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -621,15 +632,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -643,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -651,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -659,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,7 +684,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -681,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -695,7 +706,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -709,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -723,7 +734,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -731,7 +742,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -739,7 +750,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -747,7 +758,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
